--- a/inputs/elev_calib.xlsx
+++ b/inputs/elev_calib.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\218136\python_repo\Pond-IT\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5467CB25-61A4-4619-969A-D687D4BCB9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44975918-EF13-486F-8422-DE2B3362CCB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="26610" windowHeight="16440" xr2:uid="{07FE1124-A74A-4650-8A80-6A00A46E2B75}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="26610" windowHeight="16440" activeTab="1" xr2:uid="{07FE1124-A74A-4650-8A80-6A00A46E2B75}"/>
   </bookViews>
   <sheets>
     <sheet name="Eagle" sheetId="1" r:id="rId1"/>
+    <sheet name="CHB-03" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CHB-03'!$A$1:$B$8</definedName>
+  </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,12 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>calib_wse_ft</t>
+    <t>elev_ft</t>
   </si>
 </sst>
 </file>
@@ -74,12 +78,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,8 +406,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +424,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>42705</v>
       </c>
       <c r="B2">
@@ -424,7 +433,7 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>42736</v>
       </c>
       <c r="B3">
@@ -433,7 +442,7 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>42767</v>
       </c>
       <c r="B4">
@@ -442,7 +451,7 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>42795</v>
       </c>
       <c r="B5">
@@ -451,7 +460,7 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>42826</v>
       </c>
       <c r="B6">
@@ -460,7 +469,7 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>42856</v>
       </c>
       <c r="B7">
@@ -469,7 +478,7 @@
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>42887</v>
       </c>
       <c r="B8">
@@ -478,7 +487,7 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>42917</v>
       </c>
       <c r="B9">
@@ -487,7 +496,7 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>42948</v>
       </c>
       <c r="B10">
@@ -496,7 +505,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>42979</v>
       </c>
       <c r="B11">
@@ -543,4 +552,92 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D82798E-AD51-409D-82ED-300BA5E168DC}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>42690</v>
+      </c>
+      <c r="B2" s="5">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>42856</v>
+      </c>
+      <c r="B3" s="5">
+        <v>807.70492297297289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>42887</v>
+      </c>
+      <c r="B4" s="5">
+        <v>807.78505486111192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>42917</v>
+      </c>
+      <c r="B5" s="5">
+        <v>807.7798786290324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>42948</v>
+      </c>
+      <c r="B6" s="5">
+        <v>807.83845456989275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>42979</v>
+      </c>
+      <c r="B7" s="5">
+        <v>807.85836597222317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43009</v>
+      </c>
+      <c r="B8" s="5">
+        <v>807.79436698564575</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B8" xr:uid="{7418990D-0345-4D52-B37B-16FAEF88FD75}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
+      <sortCondition ref="A1:A8"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>